--- a/data/case1/20/Qlm2_5.xlsx
+++ b/data/case1/20/Qlm2_5.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.26057394822036883</v>
+        <v>-0.19581585852348837</v>
       </c>
       <c r="B1" s="0">
-        <v>0.26006601793356054</v>
+        <v>0.19550175322171981</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.18717377734054974</v>
+        <v>-0.14149974003142507</v>
       </c>
       <c r="B2" s="0">
-        <v>0.1859664944072339</v>
+        <v>0.14074182037244132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14217979993819263</v>
+        <v>-0.091029766007730828</v>
       </c>
       <c r="B3" s="0">
-        <v>0.14180636675579805</v>
+        <v>0.090884530899165483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.13380636687872283</v>
+        <v>-0.082884530937599621</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13323303634793859</v>
+        <v>0.082605628805518805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13023303642393813</v>
+        <v>-0.079605628826572961</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1282649137069809</v>
+        <v>0.078676115186309126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0030346669280323368</v>
+        <v>-0.046443962616855572</v>
       </c>
       <c r="B6" s="0">
-        <v>0.002988335915578233</v>
+        <v>0.046052986552272301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0070116639037309803</v>
+        <v>-0.036052986605909609</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0070146914091844259</v>
+        <v>0.035964776105291918</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.017014691229241929</v>
+        <v>-0.025964776160627867</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.017030885263899176</v>
+        <v>0.025827460164996374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.019030885177417023</v>
+        <v>-0.023827460191197858</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.019056371796910554</v>
+        <v>0.023720617915135911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.021056371714054833</v>
+        <v>-0.021720617943101317</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.021056544899998642</v>
+        <v>0.021714440817191871</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.024056544806264846</v>
+        <v>-0.018714440849137759</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.024064411022984622</v>
+        <v>0.018704892033858833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.027564410924850957</v>
+        <v>-0.015204892068171549</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.027688397101758522</v>
+        <v>0.015144923657327336</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.031188397012459568</v>
+        <v>-0.011644923693244991</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.031292059738797562</v>
+        <v>0.01162448241789793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.039292059602002105</v>
+        <v>-0.0090826784217465928</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.03942189271319485</v>
+        <v>0.0090536191831684931</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080502989922983659</v>
+        <v>-0.0080536192102176329</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080329600255124589</v>
+        <v>0.0080348452196226106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060329600909398984</v>
+        <v>-0.0060348452509635386</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060030298770472612</v>
+        <v>0.0060036054193357558</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003029943755898</v>
+        <v>-0.0040036054512313513</v>
       </c>
       <c r="B17" s="0">
-        <v>0.003999999910502261</v>
+        <v>0.0039999999601914027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.066892240664596869</v>
+        <v>-0.048002013214492933</v>
       </c>
       <c r="B18" s="0">
-        <v>0.066726138145607905</v>
+        <v>0.047909166995172114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091278286554097</v>
+        <v>-0.012091968059201541</v>
       </c>
       <c r="B19" s="0">
-        <v>0.01201604371066356</v>
+        <v>0.012016952600091724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008016043765440628</v>
+        <v>-0.0080169526181297357</v>
       </c>
       <c r="B20" s="0">
-        <v>0.008005699921419307</v>
+        <v>0.0080057028614142212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056999767621448</v>
+        <v>-0.0040057028796391947</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999445310408</v>
+        <v>0.0039999999816515697</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.039786694537843559</v>
+        <v>-0.045712054385587564</v>
       </c>
       <c r="B22" s="0">
-        <v>0.039609829014517928</v>
+        <v>0.045498641417461627</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.034609829097981049</v>
+        <v>-0.040498641443487138</v>
       </c>
       <c r="B23" s="0">
-        <v>0.034283617017733192</v>
+        <v>0.0400989860433274</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.014283617276075411</v>
+        <v>-0.020098986129835517</v>
       </c>
       <c r="B24" s="0">
-        <v>0.014219473481414724</v>
+        <v>0.019999999912392319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.1232302468690758</v>
+        <v>-0.030232152591379347</v>
       </c>
       <c r="B25" s="0">
-        <v>0.12303116303474582</v>
+        <v>0.030222667160094474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.12053116313532186</v>
+        <v>-0.027722667184034933</v>
       </c>
       <c r="B26" s="0">
-        <v>0.1202689602437097</v>
+        <v>0.027712762614639175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091995010074000128</v>
+        <v>-0.025212762639031272</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091027922293323016</v>
+        <v>0.025163135546861337</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089027922417516336</v>
+        <v>-0.023163135571148352</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088366090649710571</v>
+        <v>0.023136129406019279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081366090845669703</v>
+        <v>-0.016136129450950776</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081174862399553405</v>
+        <v>0.016131660245263468</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021174863203058614</v>
+        <v>0.04386833950379021</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022365902561013</v>
+        <v>-0.044031216712146382</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022366112330431</v>
+        <v>0.051031216669532142</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000771989097771</v>
+        <v>-0.05113075544768364</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040007722336206086</v>
+        <v>0.06113075539440338</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999823282252</v>
+        <v>-0.061390397593225288</v>
       </c>
     </row>
   </sheetData>
